--- a/K9HZ_20W_PA/K9HZ_20W_PA_BOM/20W WJS Amp BOM V2.4 121523.xlsx
+++ b/K9HZ_20W_PA/K9HZ_20W_PA_BOM/20W WJS Amp BOM V2.4 121523.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\20W WJS Amp\20W Amp V2.4\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\K9HZ\K9HZ_20W_PA\K9HZ_20W_PA_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B5A12-17D2-418D-8548-A22B363063AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C2C5A-F420-4C83-A77D-3EE1ECD95253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{728570BA-4C0A-4854-9D6A-44B9D45A9E78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{728570BA-4C0A-4854-9D6A-44B9D45A9E78}"/>
   </bookViews>
   <sheets>
     <sheet name="20W AMP BOM" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Non-Semi-Kit BOM" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'20W AMP BOM'!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'20W AMP BOM'!$A$1:$G$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Non-Semi-Kit BOM'!$A$1:$G$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Semi-Kit BOM'!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Semi-Kit BOM'!$A$1:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
   <si>
     <t>Part Number</t>
   </si>
@@ -233,12 +233,6 @@
     <t>595-OPA2674ID</t>
   </si>
   <si>
-    <t>863-CPH3455-TL-W</t>
-  </si>
-  <si>
-    <t>CPH3455</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
   </si>
   <si>
     <t>BN-43-3312 Wind with #20 PTFE Silver Plated Wire</t>
-  </si>
-  <si>
-    <t>Q1*</t>
   </si>
   <si>
     <t>* = Options/ alternates - See Build Text</t>
@@ -583,9 +574,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -623,7 +614,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -729,7 +720,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -871,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -882,10 +873,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -900,7 +891,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -918,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -929,10 +920,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -952,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -961,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -978,7 +969,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1001,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1024,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1047,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1067,19 +1058,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1090,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1113,13 +1104,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1139,10 +1130,10 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1159,13 +1150,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1182,13 +1173,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1225,91 +1216,91 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>119</v>
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1317,22 +1308,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1340,22 +1331,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1363,22 +1354,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>125</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1386,22 +1377,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1409,22 +1400,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -1432,22 +1423,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1455,22 +1446,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -1478,68 +1469,68 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>111</v>
+        <v>45</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G29" s="10">
         <v>1</v>
@@ -1547,22 +1538,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" s="10">
         <v>1</v>
@@ -1570,22 +1561,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>61</v>
+        <v>95</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="G31" s="10">
         <v>1</v>
@@ -1593,22 +1584,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" t="s">
-        <v>102</v>
       </c>
       <c r="G32" s="10">
         <v>1</v>
@@ -1616,78 +1607,55 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" t="s">
-        <v>116</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C19:C26">
-    <sortCondition ref="C19:C26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C18:C25">
+    <sortCondition ref="C18:C25"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA35405E-C659-430C-897C-CEB5E9D936C9}">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1714,7 +1682,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1729,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1737,10 +1705,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1757,10 +1725,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1794,79 +1762,79 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F9" s="10">
         <v>2</v>
@@ -1874,39 +1842,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -1914,19 +1882,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -1934,19 +1902,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1954,19 +1922,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1974,47 +1942,27 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>32</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="s">
-        <v>76</v>
+      <c r="B16" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2046,7 +1994,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2064,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2075,10 +2023,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2098,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2107,7 +2055,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2124,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -2147,7 +2095,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -2170,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2193,7 +2141,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -2213,19 +2161,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -2236,13 +2184,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2259,13 +2207,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -2285,10 +2233,10 @@
         <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -2308,7 +2256,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -2331,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -2354,7 +2302,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -2374,10 +2322,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -2400,7 +2348,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -2423,7 +2371,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -2432,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -2446,7 +2394,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -2455,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -2469,7 +2417,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -2478,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -2489,13 +2437,13 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -2512,16 +2460,16 @@
         <v>33</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
